--- a/wwwroot/uploads/packinglist.xlsx
+++ b/wwwroot/uploads/packinglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent_Pham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96281514-A019-4A63-9B54-7B1659E9888D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB61A98-6C89-4667-9ABD-FE565E9E01A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,14 +17,14 @@
     <sheet name="SQL" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PACKING_MASTER_LIST!$D$1:$J$27</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PACKING_MASTER_LIST!$D$1:$I$27</definedName>
   </definedNames>
   <calcPr calcId="191028" iterateDelta="1E-4"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="26">
   <si>
     <t>CUSTOMER_PART_NO</t>
   </si>
@@ -57,9 +57,6 @@
   </si>
   <si>
     <t>PO_TOTAL_QTY</t>
-  </si>
-  <si>
-    <t>RAW_DATA</t>
   </si>
   <si>
     <t>S-PS/1AC/24DC/0.75DF 15.2574.511-01</t>
@@ -144,12 +141,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -164,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -173,6 +176,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -490,11 +497,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:K27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -508,7 +515,7 @@
     <col min="9" max="9" width="22.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
@@ -537,16 +544,13 @@
         <v>10</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:11">
       <c r="A2" s="3">
         <v>345804</v>
       </c>
@@ -560,29 +564,28 @@
         <v>2868826</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="4">
         <v>77</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I2" s="4">
         <v>5000</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="J2" s="3">
+        <v>25</v>
+      </c>
       <c r="K2" s="3">
-        <v>25</v>
-      </c>
-      <c r="L2" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="3">
         <v>345804</v>
       </c>
@@ -596,29 +599,28 @@
         <v>2868826</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="4">
         <v>600</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I3" s="4">
         <v>5000</v>
       </c>
-      <c r="J3" s="4"/>
+      <c r="J3" s="3">
+        <v>25</v>
+      </c>
       <c r="K3" s="3">
-        <v>25</v>
-      </c>
-      <c r="L3" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="3">
         <v>345779</v>
       </c>
@@ -632,29 +634,28 @@
         <v>2868567</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F4" s="4">
         <v>974</v>
       </c>
       <c r="G4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I4" s="4">
         <v>5000</v>
       </c>
-      <c r="J4" s="4"/>
+      <c r="J4" s="3">
+        <v>25</v>
+      </c>
       <c r="K4" s="3">
-        <v>25</v>
-      </c>
-      <c r="L4" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="3">
         <v>345779</v>
       </c>
@@ -668,101 +669,98 @@
         <v>2868567</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="4">
         <v>626</v>
       </c>
       <c r="G5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="3" t="s">
         <v>13</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>14</v>
       </c>
       <c r="I5" s="4">
         <v>5000</v>
       </c>
-      <c r="J5" s="4"/>
+      <c r="J5" s="3">
+        <v>25</v>
+      </c>
       <c r="K5" s="3">
-        <v>25</v>
-      </c>
-      <c r="L5" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="2" customFormat="1">
-      <c r="A6" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="8" customFormat="1">
+      <c r="A6" s="6">
         <v>336909</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B6" s="6">
         <v>1960027</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="6">
         <v>4504254060</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="6">
         <v>1088494</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="7">
+        <v>1185</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="4">
-        <v>1185</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I6" s="4">
+      <c r="I6" s="7">
         <v>5000</v>
       </c>
-      <c r="J6" s="4"/>
-      <c r="K6" s="3">
-        <v>25</v>
-      </c>
-      <c r="L6" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" s="3">
+      <c r="J6" s="6">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="9" customFormat="1">
+      <c r="A7" s="6">
         <v>336909</v>
       </c>
-      <c r="B7" s="3">
+      <c r="B7" s="6">
         <v>1960027</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="6">
         <v>4504214556</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="6">
         <v>1088494</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1700</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="4">
-        <v>1700</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I7" s="4">
+      <c r="I7" s="7">
         <v>5000</v>
       </c>
-      <c r="J7" s="4"/>
-      <c r="K7" s="3">
-        <v>25</v>
-      </c>
-      <c r="L7" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="J7" s="6">
+        <v>25</v>
+      </c>
+      <c r="K7" s="6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="3">
         <v>343652</v>
       </c>
@@ -776,29 +774,28 @@
         <v>2868554</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F8" s="4">
         <v>250</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I8" s="4">
         <v>10000</v>
       </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="3">
+        <v>25</v>
+      </c>
       <c r="K8" s="3">
-        <v>25</v>
-      </c>
-      <c r="L8" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="5">
         <v>343652</v>
       </c>
@@ -812,29 +809,28 @@
         <v>2868554</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F9" s="4">
         <v>250</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="4">
         <v>10000</v>
       </c>
-      <c r="J9" s="4"/>
+      <c r="J9" s="5">
+        <v>25</v>
+      </c>
       <c r="K9" s="5">
-        <v>25</v>
-      </c>
-      <c r="L9" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="5">
         <v>349508</v>
       </c>
@@ -848,29 +844,28 @@
         <v>2906222</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4">
         <v>2468</v>
       </c>
       <c r="G10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I10" s="4">
         <v>2508</v>
       </c>
-      <c r="J10" s="4"/>
+      <c r="J10" s="5">
+        <v>25</v>
+      </c>
       <c r="K10" s="5">
-        <v>25</v>
-      </c>
-      <c r="L10" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="5">
         <v>342028</v>
       </c>
@@ -884,29 +879,28 @@
         <v>1170953</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F11" s="4">
         <v>500</v>
       </c>
       <c r="G11" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I11" s="4">
         <v>5000</v>
       </c>
-      <c r="J11" s="4"/>
+      <c r="J11" s="5">
+        <v>25</v>
+      </c>
       <c r="K11" s="5">
-        <v>25</v>
-      </c>
-      <c r="L11" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="5">
         <v>349653</v>
       </c>
@@ -920,29 +914,28 @@
         <v>2904376</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F12" s="4">
         <v>1700</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="4">
         <v>5000</v>
       </c>
-      <c r="J12" s="4"/>
+      <c r="J12" s="5">
+        <v>25</v>
+      </c>
       <c r="K12" s="5">
-        <v>25</v>
-      </c>
-      <c r="L12" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="5">
         <v>345557</v>
       </c>
@@ -956,29 +949,28 @@
         <v>1308691</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F13" s="4">
         <v>150</v>
       </c>
       <c r="G13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="5" t="s">
         <v>13</v>
-      </c>
-      <c r="H13" s="5" t="s">
-        <v>14</v>
       </c>
       <c r="I13" s="4">
         <v>750</v>
       </c>
-      <c r="J13" s="4"/>
+      <c r="J13" s="5">
+        <v>25</v>
+      </c>
       <c r="K13" s="5">
-        <v>25</v>
-      </c>
-      <c r="L13" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="5">
         <v>345779</v>
       </c>
@@ -992,29 +984,28 @@
         <v>2868567</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="4">
         <v>1024</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="4">
         <v>5000</v>
       </c>
-      <c r="J14" s="4"/>
+      <c r="J14" s="5">
+        <v>25</v>
+      </c>
       <c r="K14" s="5">
-        <v>25</v>
-      </c>
-      <c r="L14" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="5">
         <v>345779</v>
       </c>
@@ -1028,29 +1019,28 @@
         <v>2868567</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="4">
         <v>2306</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="4">
         <v>5000</v>
       </c>
-      <c r="J15" s="4"/>
+      <c r="J15" s="5">
+        <v>25</v>
+      </c>
       <c r="K15" s="5">
-        <v>25</v>
-      </c>
-      <c r="L15" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="5">
         <v>343662</v>
       </c>
@@ -1064,29 +1054,28 @@
         <v>2868622</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F16" s="4">
         <v>3707</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I16" s="4">
         <v>5000</v>
       </c>
-      <c r="J16" s="4"/>
+      <c r="J16" s="5">
+        <v>25</v>
+      </c>
       <c r="K16" s="5">
-        <v>25</v>
-      </c>
-      <c r="L16" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="5">
         <v>343660</v>
       </c>
@@ -1100,29 +1089,28 @@
         <v>2868622</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17" s="4">
         <v>105</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="4">
         <v>10000</v>
       </c>
-      <c r="J17" s="4"/>
+      <c r="J17" s="5">
+        <v>25</v>
+      </c>
       <c r="K17" s="5">
-        <v>25</v>
-      </c>
-      <c r="L17" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="5">
         <v>345808</v>
       </c>
@@ -1136,29 +1124,28 @@
         <v>2868622</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F18" s="4">
         <v>588</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H18" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="4">
         <v>5000</v>
       </c>
-      <c r="J18" s="4"/>
+      <c r="J18" s="5">
+        <v>25</v>
+      </c>
       <c r="K18" s="5">
-        <v>25</v>
-      </c>
-      <c r="L18" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="5">
         <v>343652</v>
       </c>
@@ -1172,29 +1159,28 @@
         <v>2868554</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="4">
         <v>350</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H19" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I19" s="4">
         <v>10000</v>
       </c>
-      <c r="J19" s="4"/>
+      <c r="J19" s="5">
+        <v>25</v>
+      </c>
       <c r="K19" s="5">
-        <v>25</v>
-      </c>
-      <c r="L19" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="5">
         <v>343649</v>
       </c>
@@ -1208,29 +1194,28 @@
         <v>2868606</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F20" s="4">
         <v>120</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I20" s="4">
         <v>3000</v>
       </c>
-      <c r="J20" s="4"/>
+      <c r="J20" s="5">
+        <v>25</v>
+      </c>
       <c r="K20" s="5">
-        <v>25</v>
-      </c>
-      <c r="L20" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="5">
         <v>345772</v>
       </c>
@@ -1244,29 +1229,28 @@
         <v>2868606</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F21" s="4">
         <v>10</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H21" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I21" s="4">
         <v>3000</v>
       </c>
-      <c r="J21" s="4"/>
+      <c r="J21" s="5">
+        <v>25</v>
+      </c>
       <c r="K21" s="5">
-        <v>25</v>
-      </c>
-      <c r="L21" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="5">
         <v>345772</v>
       </c>
@@ -1280,29 +1264,28 @@
         <v>2868606</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F22" s="4">
         <v>650</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H22" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I22" s="4">
         <v>3000</v>
       </c>
-      <c r="J22" s="4"/>
+      <c r="J22" s="5">
+        <v>25</v>
+      </c>
       <c r="K22" s="5">
-        <v>25</v>
-      </c>
-      <c r="L22" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="5">
         <v>345772</v>
       </c>
@@ -1316,55 +1299,50 @@
         <v>2868606</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F23" s="4">
         <v>50</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="H23" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="4">
         <v>3000</v>
       </c>
-      <c r="J23" s="4"/>
+      <c r="J23" s="5">
+        <v>25</v>
+      </c>
       <c r="K23" s="5">
-        <v>25</v>
-      </c>
-      <c r="L23" s="5">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="2"/>
       <c r="C24" s="2"/>
       <c r="F24" s="1"/>
       <c r="I24" s="1"/>
-      <c r="J24" s="1"/>
-    </row>
-    <row r="25" spans="1:12">
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="2"/>
       <c r="C25" s="2"/>
       <c r="F25" s="1"/>
       <c r="I25" s="1"/>
-      <c r="J25" s="1"/>
-    </row>
-    <row r="26" spans="1:12">
+    </row>
+    <row r="26" spans="1:11">
       <c r="F26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-    </row>
-    <row r="27" spans="1:12">
+    </row>
+    <row r="27" spans="1:11">
       <c r="F27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:K27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState ref="D2:K27">
+  <autoFilter ref="D1:J27" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState ref="D2:J27">
     <sortCondition ref="D2:D27"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1381,7 +1359,7 @@
   <sheetData>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/wwwroot/uploads/packinglist.xlsx
+++ b/wwwroot/uploads/packinglist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vincent_Pham\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CB61A98-6C89-4667-9ABD-FE565E9E01A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA601FB-718E-4B3B-B40C-84586A7CB9B0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9780" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -141,18 +141,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -167,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -176,10 +170,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -501,7 +491,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F3"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1:J1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -690,73 +680,73 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="8" customFormat="1">
-      <c r="A6" s="6">
+    <row r="6" spans="1:11" s="2" customFormat="1">
+      <c r="A6" s="3">
         <v>336909</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>1960027</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="3">
         <v>4504254060</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="3">
         <v>1088494</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="4">
         <v>1185</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="4">
         <v>5000</v>
       </c>
-      <c r="J6" s="6">
-        <v>25</v>
-      </c>
-      <c r="K6" s="6">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="9" customFormat="1">
-      <c r="A7" s="6">
+      <c r="J6" s="3">
+        <v>25</v>
+      </c>
+      <c r="K6" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="3">
         <v>336909</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>1960027</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="3">
         <v>4504214556</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="3">
         <v>1088494</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="4">
         <v>1700</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="6" t="s">
+      <c r="G7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="4">
         <v>5000</v>
       </c>
-      <c r="J7" s="6">
-        <v>25</v>
-      </c>
-      <c r="K7" s="6">
+      <c r="J7" s="3">
+        <v>25</v>
+      </c>
+      <c r="K7" s="3">
         <v>22</v>
       </c>
     </row>
